--- a/Work Project File Cleanup/Project File List.xlsx
+++ b/Work Project File Cleanup/Project File List.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Project Number</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Open/Closed</t>
+  </si>
+  <si>
+    <t>Project Cost</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,11 +421,12 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,24 +443,28 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12Project File Cleanup</oddHeader>
+    <oddFooter>&amp;L&amp;D&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>